--- a/Excel/BattlefieldEnemyPathConfig.xlsx
+++ b/Excel/BattlefieldEnemyPathConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BattlefieldEnemyPath" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,9 @@
     </r>
   </si>
   <si>
+    <t>21,28,35,42,49,50,51,52,53,54,55,48,41,34</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -199,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -241,14 +244,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,104 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -370,7 +366,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,14 +388,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,19 +409,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,163 +517,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,30 +614,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,13 +657,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,151 +704,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,7 +1244,7 @@
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1511,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
@@ -1536,13 +1539,13 @@
         <v>34</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:19">
@@ -1551,10 +1554,10 @@
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
@@ -1579,13 +1582,13 @@
         <v>41</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:19">
@@ -1594,10 +1597,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="6">
@@ -1622,13 +1625,13 @@
         <v>48</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="2:19">
@@ -1659,10 +1662,10 @@
         <v>55</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>12</v>

--- a/Excel/BattlefieldEnemyPathConfig.xlsx
+++ b/Excel/BattlefieldEnemyPathConfig.xlsx
@@ -202,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -244,6 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,15 +264,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,6 +294,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -326,25 +342,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,14 +359,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,13 +367,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +379,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -409,25 +409,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,157 +493,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +614,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +661,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,15 +677,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,7 +1244,7 @@
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
